--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Spon2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Itgb2</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H2">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I2">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J2">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>101.826259398135</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N2">
-        <v>101.826259398135</v>
+        <v>0.168572</v>
       </c>
       <c r="O2">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P2">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q2">
-        <v>15.46003891467099</v>
+        <v>0.008577355424888888</v>
       </c>
       <c r="R2">
-        <v>15.46003891467099</v>
+        <v>0.077196198824</v>
       </c>
       <c r="S2">
-        <v>0.01278114527490523</v>
+        <v>5.3733983316665E-06</v>
       </c>
       <c r="T2">
-        <v>0.01278114527490523</v>
+        <v>5.373398331666501E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H3">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I3">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J3">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>98.5479426357753</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N3">
-        <v>98.5479426357753</v>
+        <v>419.396924</v>
       </c>
       <c r="O3">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P3">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q3">
-        <v>14.9622998734819</v>
+        <v>21.33994068560089</v>
       </c>
       <c r="R3">
-        <v>14.9622998734819</v>
+        <v>192.059466170408</v>
       </c>
       <c r="S3">
-        <v>0.01236965374959006</v>
+        <v>0.01336868953164026</v>
       </c>
       <c r="T3">
-        <v>0.01236965374959006</v>
+        <v>0.01336868953164026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.151827622914273</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H4">
-        <v>0.151827622914273</v>
+        <v>0.457942</v>
       </c>
       <c r="I4">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J4">
-        <v>0.04818493703132608</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>183.51095001644</v>
+        <v>99.694255</v>
       </c>
       <c r="N4">
-        <v>183.51095001644</v>
+        <v>299.082765</v>
       </c>
       <c r="O4">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P4">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q4">
-        <v>27.86203131973606</v>
+        <v>15.21806217440333</v>
       </c>
       <c r="R4">
-        <v>27.86203131973606</v>
+        <v>136.96255956963</v>
       </c>
       <c r="S4">
-        <v>0.02303413800683079</v>
+        <v>0.009533557355202548</v>
       </c>
       <c r="T4">
-        <v>0.02303413800683079</v>
+        <v>0.009533557355202549</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.32270397629794</v>
+        <v>0.1526473333333333</v>
       </c>
       <c r="H5">
-        <v>2.32270397629794</v>
+        <v>0.457942</v>
       </c>
       <c r="I5">
-        <v>0.7371474484818903</v>
+        <v>0.04089624487414953</v>
       </c>
       <c r="J5">
-        <v>0.7371474484818903</v>
+        <v>0.04089624487414954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>101.826259398135</v>
+        <v>188.11053</v>
       </c>
       <c r="N5">
-        <v>101.826259398135</v>
+        <v>564.33159</v>
       </c>
       <c r="O5">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P5">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q5">
-        <v>236.5122575955936</v>
+        <v>28.71457077642</v>
       </c>
       <c r="R5">
-        <v>236.5122575955936</v>
+        <v>258.43113698778</v>
       </c>
       <c r="S5">
-        <v>0.1955297486836514</v>
+        <v>0.01798862458897506</v>
       </c>
       <c r="T5">
-        <v>0.1955297486836514</v>
+        <v>0.01798862458897506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H6">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I6">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J6">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>98.5479426357753</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N6">
-        <v>98.5479426357753</v>
+        <v>0.168572</v>
       </c>
       <c r="O6">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P6">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q6">
-        <v>228.8976982160966</v>
+        <v>0.1428323667155556</v>
       </c>
       <c r="R6">
-        <v>228.8976982160966</v>
+        <v>1.28549130044</v>
       </c>
       <c r="S6">
-        <v>0.1892346293653301</v>
+        <v>8.947923491549683E-05</v>
       </c>
       <c r="T6">
-        <v>0.1892346293653301</v>
+        <v>8.947923491549682E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.32270397629794</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H7">
-        <v>2.32270397629794</v>
+        <v>7.62577</v>
       </c>
       <c r="I7">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J7">
-        <v>0.7371474484818903</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>183.51095001644</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N7">
-        <v>183.51095001644</v>
+        <v>419.396924</v>
       </c>
       <c r="O7">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P7">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q7">
-        <v>426.2416132973977</v>
+        <v>355.3582756812755</v>
       </c>
       <c r="R7">
-        <v>426.2416132973977</v>
+        <v>3198.22448113148</v>
       </c>
       <c r="S7">
-        <v>0.3523830704329087</v>
+        <v>0.2226189158664118</v>
       </c>
       <c r="T7">
-        <v>0.3523830704329087</v>
+        <v>0.2226189158664117</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6764037816012261</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H8">
-        <v>0.6764037816012261</v>
+        <v>7.62577</v>
       </c>
       <c r="I8">
-        <v>0.2146676144867836</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J8">
-        <v>0.2146676144867836</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.826259398135</v>
+        <v>99.694255</v>
       </c>
       <c r="N8">
-        <v>101.826259398135</v>
+        <v>299.082765</v>
       </c>
       <c r="O8">
-        <v>0.2652518828985068</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P8">
-        <v>0.2652518828985068</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q8">
-        <v>68.8756669232059</v>
+        <v>253.4151529837833</v>
       </c>
       <c r="R8">
-        <v>68.8756669232059</v>
+        <v>2280.73637685405</v>
       </c>
       <c r="S8">
-        <v>0.05694098893995012</v>
+        <v>0.1587552914399268</v>
       </c>
       <c r="T8">
-        <v>0.05694098893995012</v>
+        <v>0.1587552914399267</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6764037816012261</v>
+        <v>2.541923333333334</v>
       </c>
       <c r="H9">
-        <v>0.6764037816012261</v>
+        <v>7.62577</v>
       </c>
       <c r="I9">
-        <v>0.2146676144867836</v>
+        <v>0.6810149697427694</v>
       </c>
       <c r="J9">
-        <v>0.2146676144867836</v>
+        <v>0.6810149697427693</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>98.5479426357753</v>
+        <v>188.11053</v>
       </c>
       <c r="N9">
-        <v>98.5479426357753</v>
+        <v>564.33159</v>
       </c>
       <c r="O9">
-        <v>0.2567120455412919</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P9">
-        <v>0.2567120455412919</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q9">
-        <v>66.65820106785911</v>
+        <v>478.1625454527</v>
       </c>
       <c r="R9">
-        <v>66.65820106785911</v>
+        <v>4303.4629090743</v>
       </c>
       <c r="S9">
-        <v>0.05510776242637169</v>
+        <v>0.2995512832015154</v>
       </c>
       <c r="T9">
-        <v>0.05510776242637169</v>
+        <v>0.2995512832015153</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.05304766666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.159143</v>
+      </c>
+      <c r="I10">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="J10">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.05619066666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.168572</v>
+      </c>
+      <c r="O10">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="P10">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="Q10">
+        <v>0.002980783755111111</v>
+      </c>
+      <c r="R10">
+        <v>0.026827053796</v>
+      </c>
+      <c r="S10">
+        <v>1.867351609366255E-06</v>
+      </c>
+      <c r="T10">
+        <v>1.867351609366255E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.05304766666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.159143</v>
+      </c>
+      <c r="I11">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="J11">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>139.7989746666667</v>
+      </c>
+      <c r="N11">
+        <v>419.396924</v>
+      </c>
+      <c r="O11">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="P11">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="Q11">
+        <v>7.416009408459109</v>
+      </c>
+      <c r="R11">
+        <v>66.74408467613199</v>
+      </c>
+      <c r="S11">
+        <v>0.004645857680959217</v>
+      </c>
+      <c r="T11">
+        <v>0.004645857680959216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.05304766666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.159143</v>
+      </c>
+      <c r="I12">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="J12">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>99.694255</v>
+      </c>
+      <c r="N12">
+        <v>299.082765</v>
+      </c>
+      <c r="O12">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="P12">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="Q12">
+        <v>5.288547607821666</v>
+      </c>
+      <c r="R12">
+        <v>47.59692847039499</v>
+      </c>
+      <c r="S12">
+        <v>0.003313080953874069</v>
+      </c>
+      <c r="T12">
+        <v>0.003313080953874069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.05304766666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.159143</v>
+      </c>
+      <c r="I13">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="J13">
+        <v>0.0142121733713151</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>188.11053</v>
+      </c>
+      <c r="N13">
+        <v>564.33159</v>
+      </c>
+      <c r="O13">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P13">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q13">
+        <v>9.978824691929999</v>
+      </c>
+      <c r="R13">
+        <v>89.80942222736999</v>
+      </c>
+      <c r="S13">
+        <v>0.006251367384872445</v>
+      </c>
+      <c r="T13">
+        <v>0.006251367384872445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.428537</v>
+      </c>
+      <c r="I14">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J14">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.05619066666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.168572</v>
+      </c>
+      <c r="O14">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="P14">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="Q14">
+        <v>0.008026593240444444</v>
+      </c>
+      <c r="R14">
+        <v>0.07223933916399999</v>
+      </c>
+      <c r="S14">
+        <v>5.028366039492702E-06</v>
+      </c>
+      <c r="T14">
+        <v>5.028366039492702E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.428537</v>
+      </c>
+      <c r="I15">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J15">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>139.7989746666667</v>
+      </c>
+      <c r="N15">
+        <v>419.396924</v>
+      </c>
+      <c r="O15">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="P15">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="Q15">
+        <v>19.96967773557644</v>
+      </c>
+      <c r="R15">
+        <v>179.727099620188</v>
+      </c>
+      <c r="S15">
+        <v>0.0125102700905803</v>
+      </c>
+      <c r="T15">
+        <v>0.01251027009058029</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.428537</v>
+      </c>
+      <c r="I16">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J16">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>99.694255</v>
+      </c>
+      <c r="N16">
+        <v>299.082765</v>
+      </c>
+      <c r="O16">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="P16">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="Q16">
+        <v>14.24089231831167</v>
+      </c>
+      <c r="R16">
+        <v>128.168030864805</v>
+      </c>
+      <c r="S16">
+        <v>0.008921396308542206</v>
+      </c>
+      <c r="T16">
+        <v>0.008921396308542206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1428456666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.428537</v>
+      </c>
+      <c r="I17">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="J17">
+        <v>0.03827024839310091</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>188.11053</v>
+      </c>
+      <c r="N17">
+        <v>564.33159</v>
+      </c>
+      <c r="O17">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P17">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q17">
+        <v>26.87077406487</v>
+      </c>
+      <c r="R17">
+        <v>241.83696658383</v>
+      </c>
+      <c r="S17">
+        <v>0.01683355362793892</v>
+      </c>
+      <c r="T17">
+        <v>0.01683355362793892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H18">
+        <v>2.526262</v>
+      </c>
+      <c r="I18">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J18">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.05619066666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.168572</v>
+      </c>
+      <c r="O18">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="P18">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="Q18">
+        <v>0.04731744865155555</v>
+      </c>
+      <c r="R18">
+        <v>0.425857037864</v>
+      </c>
+      <c r="S18">
+        <v>2.964264473700267E-05</v>
+      </c>
+      <c r="T18">
+        <v>2.964264473700267E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H19">
+        <v>2.526262</v>
+      </c>
+      <c r="I19">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J19">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>139.7989746666667</v>
+      </c>
+      <c r="N19">
+        <v>419.396924</v>
+      </c>
+      <c r="O19">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="P19">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="Q19">
+        <v>117.7229457797875</v>
+      </c>
+      <c r="R19">
+        <v>1059.506512018088</v>
+      </c>
+      <c r="S19">
+        <v>0.07374910437038006</v>
+      </c>
+      <c r="T19">
+        <v>0.07374910437038004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.6764037816012261</v>
-      </c>
-      <c r="H10">
-        <v>0.6764037816012261</v>
-      </c>
-      <c r="I10">
-        <v>0.2146676144867836</v>
-      </c>
-      <c r="J10">
-        <v>0.2146676144867836</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>183.51095001644</v>
-      </c>
-      <c r="N10">
-        <v>183.51095001644</v>
-      </c>
-      <c r="O10">
-        <v>0.4780360715602013</v>
-      </c>
-      <c r="P10">
-        <v>0.4780360715602013</v>
-      </c>
-      <c r="Q10">
-        <v>124.1275005563536</v>
-      </c>
-      <c r="R10">
-        <v>124.1275005563536</v>
-      </c>
-      <c r="S10">
-        <v>0.1026188631204618</v>
-      </c>
-      <c r="T10">
-        <v>0.1026188631204618</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H20">
+        <v>2.526262</v>
+      </c>
+      <c r="I20">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J20">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>99.694255</v>
+      </c>
+      <c r="N20">
+        <v>299.082765</v>
+      </c>
+      <c r="O20">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="P20">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="Q20">
+        <v>83.95126934160332</v>
+      </c>
+      <c r="R20">
+        <v>755.56142407443</v>
+      </c>
+      <c r="S20">
+        <v>0.05259238871138419</v>
+      </c>
+      <c r="T20">
+        <v>0.05259238871138419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.8420873333333333</v>
+      </c>
+      <c r="H21">
+        <v>2.526262</v>
+      </c>
+      <c r="I21">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="J21">
+        <v>0.2256063636186651</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>188.11053</v>
+      </c>
+      <c r="N21">
+        <v>564.33159</v>
+      </c>
+      <c r="O21">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P21">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q21">
+        <v>158.40549457962</v>
+      </c>
+      <c r="R21">
+        <v>1425.64945121658</v>
+      </c>
+      <c r="S21">
+        <v>0.09923522789216388</v>
+      </c>
+      <c r="T21">
+        <v>0.09923522789216387</v>
       </c>
     </row>
   </sheetData>
